--- a/CreateScripts/Darrian/Records/CUSTOMER.xlsx
+++ b/CreateScripts/Darrian/Records/CUSTOMER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darri\Documents\GitHub\CIS3365\CreateScripts\Darrian\Records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947EF2C9-8DB9-4024-B0F4-DB8EF8966D7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B37062-32B2-425E-BFA8-B60515B1A200}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25620" yWindow="4215" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,6 @@
     <t>C_ID</t>
   </si>
   <si>
-    <t>C_ORDER_NUM</t>
-  </si>
-  <si>
     <t>SERVICE_ID</t>
   </si>
   <si>
@@ -57,6 +54,9 @@
   </si>
   <si>
     <t>Alamo Stone</t>
+  </si>
+  <si>
+    <t>ORDER_ID</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,19 +429,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -455,13 +455,13 @@
         <v>3615</v>
       </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -470,21 +470,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F9496591E87E6B43B723AE20E6EEE6F2" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5abb67ef7e345ce9725832975159a551">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="351fd5e3-c834-48b3-88b8-b9d0689c8e02" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9fce2e76832725649a8fa2a9f44068ce" ns2:_="">
     <xsd:import namespace="351fd5e3-c834-48b3-88b8-b9d0689c8e02"/>
@@ -616,24 +601,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E996D2C7-56B1-4226-A264-2B72A1CDE30C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AA8D57-76DF-43A7-902A-733268541712}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C199F70-C747-4AE5-B5B6-1B94F0013A6C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -649,4 +632,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AA8D57-76DF-43A7-902A-733268541712}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E996D2C7-56B1-4226-A264-2B72A1CDE30C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CreateScripts/Darrian/Records/CUSTOMER.xlsx
+++ b/CreateScripts/Darrian/Records/CUSTOMER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darri\Documents\GitHub\CIS3365\CreateScripts\Darrian\Records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B37062-32B2-425E-BFA8-B60515B1A200}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633762AF-AD4F-40CE-9EB2-3E38D6AE365C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25620" yWindow="4215" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18285" yWindow="3555" windowWidth="11670" windowHeight="7125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>C_ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>SERVICE_ID</t>
   </si>
@@ -44,9 +41,6 @@
     <t>C_LNAME</t>
   </si>
   <si>
-    <t>C_BUS_NAME</t>
-  </si>
-  <si>
     <t>Stone</t>
   </si>
   <si>
@@ -57,6 +51,9 @@
   </si>
   <si>
     <t>ORDER_ID</t>
+  </si>
+  <si>
+    <t>C_BUSINESS_NAME</t>
   </si>
 </sst>
 </file>
@@ -409,27 +406,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -438,30 +434,24 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>3615</v>
       </c>
       <c r="B2" s="1">
         <v>3615</v>
       </c>
-      <c r="C2" s="1">
-        <v>3615</v>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/CreateScripts/Darrian/Records/CUSTOMER.xlsx
+++ b/CreateScripts/Darrian/Records/CUSTOMER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darri\Documents\GitHub\CIS3365\CreateScripts\Darrian\Records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633762AF-AD4F-40CE-9EB2-3E38D6AE365C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DA9BDF-A0BB-4087-9A8D-E7F5975DA8DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18285" yWindow="3555" windowWidth="11670" windowHeight="7125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14415" yWindow="3630" windowWidth="11670" windowHeight="7125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,7 +417,7 @@
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">

--- a/CreateScripts/Darrian/Records/CUSTOMER.xlsx
+++ b/CreateScripts/Darrian/Records/CUSTOMER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darri\Documents\GitHub\CIS3365\CreateScripts\Darrian\Records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DA9BDF-A0BB-4087-9A8D-E7F5975DA8DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7A9DF9-1274-46DC-9DEC-CDC9167E3975}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14415" yWindow="3630" windowWidth="11670" windowHeight="7125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13365" yWindow="3765" windowWidth="15225" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>SERVICE_ID</t>
   </si>
@@ -54,6 +54,33 @@
   </si>
   <si>
     <t>C_BUSINESS_NAME</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>Jesse</t>
+  </si>
+  <si>
+    <t>Caldwell</t>
+  </si>
+  <si>
+    <t>KD</t>
+  </si>
+  <si>
+    <t>Amar</t>
+  </si>
+  <si>
+    <t>Nath</t>
+  </si>
+  <si>
+    <t>Hillard</t>
+  </si>
+  <si>
+    <t>Hillard &amp; Sons</t>
+  </si>
+  <si>
+    <t>James</t>
   </si>
 </sst>
 </file>
@@ -406,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,10 +466,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>3615</v>
+        <v>14580</v>
       </c>
       <c r="B2" s="1">
-        <v>3615</v>
+        <v>14580</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -452,6 +479,65 @@
       </c>
       <c r="E2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5964</v>
+      </c>
+      <c r="B3">
+        <v>5964</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5959</v>
+      </c>
+      <c r="B4">
+        <v>5959</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5956</v>
+      </c>
+      <c r="B5">
+        <v>5956</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5935</v>
+      </c>
+      <c r="B6">
+        <v>5935</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -460,6 +546,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F9496591E87E6B43B723AE20E6EEE6F2" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5abb67ef7e345ce9725832975159a551">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="351fd5e3-c834-48b3-88b8-b9d0689c8e02" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9fce2e76832725649a8fa2a9f44068ce" ns2:_="">
     <xsd:import namespace="351fd5e3-c834-48b3-88b8-b9d0689c8e02"/>
@@ -591,12 +683,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -607,6 +693,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AA8D57-76DF-43A7-902A-733268541712}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C199F70-C747-4AE5-B5B6-1B94F0013A6C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -624,15 +719,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AA8D57-76DF-43A7-902A-733268541712}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E996D2C7-56B1-4226-A264-2B72A1CDE30C}">
   <ds:schemaRefs>

--- a/CreateScripts/Darrian/Records/CUSTOMER.xlsx
+++ b/CreateScripts/Darrian/Records/CUSTOMER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darri\Documents\GitHub\CIS3365\CreateScripts\Darrian\Records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7A9DF9-1274-46DC-9DEC-CDC9167E3975}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA89662E-D7FD-456F-B388-A56697E0769C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13365" yWindow="3765" windowWidth="15225" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7755" yWindow="3285" windowWidth="15225" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>SERVICE_ID</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>James</t>
+  </si>
+  <si>
+    <t>CUSTOMER_ID</t>
   </si>
 </sst>
 </file>
@@ -433,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,9 +448,10 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -463,8 +467,11 @@
       <c r="E1" t="s">
         <v>7</v>
       </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>14580</v>
       </c>
@@ -480,8 +487,11 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5964</v>
       </c>
@@ -494,8 +504,11 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5959</v>
       </c>
@@ -508,8 +521,11 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5956</v>
       </c>
@@ -522,8 +538,11 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5935</v>
       </c>
@@ -538,6 +557,9 @@
       </c>
       <c r="E6" t="s">
         <v>15</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -546,12 +568,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F9496591E87E6B43B723AE20E6EEE6F2" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5abb67ef7e345ce9725832975159a551">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="351fd5e3-c834-48b3-88b8-b9d0689c8e02" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9fce2e76832725649a8fa2a9f44068ce" ns2:_="">
     <xsd:import namespace="351fd5e3-c834-48b3-88b8-b9d0689c8e02"/>
@@ -683,6 +699,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -693,15 +715,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AA8D57-76DF-43A7-902A-733268541712}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C199F70-C747-4AE5-B5B6-1B94F0013A6C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -719,6 +732,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AA8D57-76DF-43A7-902A-733268541712}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E996D2C7-56B1-4226-A264-2B72A1CDE30C}">
   <ds:schemaRefs>
